--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H2">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I2">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J2">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N2">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O2">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P2">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q2">
-        <v>24.35292791733035</v>
+        <v>32.03289645108225</v>
       </c>
       <c r="R2">
-        <v>24.35292791733035</v>
+        <v>128.131585804329</v>
       </c>
       <c r="S2">
-        <v>0.004199615996184084</v>
+        <v>0.00500220058426576</v>
       </c>
       <c r="T2">
-        <v>0.004199615996184084</v>
+        <v>0.002442448007868447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H3">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I3">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J3">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N3">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O3">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P3">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q3">
-        <v>8.155452774350522</v>
+        <v>11.528821113977</v>
       </c>
       <c r="R3">
-        <v>8.155452774350522</v>
+        <v>69.17292668386199</v>
       </c>
       <c r="S3">
-        <v>0.001406392284474059</v>
+        <v>0.001800320361297917</v>
       </c>
       <c r="T3">
-        <v>0.001406392284474059</v>
+        <v>0.001318576336325346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H4">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I4">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J4">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N4">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O4">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P4">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q4">
-        <v>158.5118315962654</v>
+        <v>214.0191813628855</v>
       </c>
       <c r="R4">
-        <v>158.5118315962654</v>
+        <v>1284.115088177313</v>
       </c>
       <c r="S4">
-        <v>0.027335063193054</v>
+        <v>0.03342085770146883</v>
       </c>
       <c r="T4">
-        <v>0.027335063193054</v>
+        <v>0.02447783908475228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H5">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I5">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J5">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N5">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O5">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P5">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q5">
-        <v>187.2165542364322</v>
+        <v>243.0323638797725</v>
       </c>
       <c r="R5">
-        <v>187.2165542364322</v>
+        <v>1458.194183278635</v>
       </c>
       <c r="S5">
-        <v>0.03228513789351271</v>
+        <v>0.03795150508638483</v>
       </c>
       <c r="T5">
-        <v>0.03228513789351271</v>
+        <v>0.02779613984855505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H6">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I6">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J6">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N6">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O6">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P6">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q6">
-        <v>16.90156237916497</v>
+        <v>22.367021127516</v>
       </c>
       <c r="R6">
-        <v>16.90156237916497</v>
+        <v>134.202126765096</v>
       </c>
       <c r="S6">
-        <v>0.002914642213412563</v>
+        <v>0.003492794550227601</v>
       </c>
       <c r="T6">
-        <v>0.002914642213412563</v>
+        <v>0.002558164835871744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.73223319128606</v>
+        <v>11.2878555</v>
       </c>
       <c r="H7">
-        <v>8.73223319128606</v>
+        <v>22.575711</v>
       </c>
       <c r="I7">
-        <v>0.06861099901917089</v>
+        <v>0.08226787741619843</v>
       </c>
       <c r="J7">
-        <v>0.06861099901917089</v>
+        <v>0.05888623016694999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.312212546451932</v>
+        <v>0.3405015</v>
       </c>
       <c r="N7">
-        <v>0.312212546451932</v>
+        <v>0.681003</v>
       </c>
       <c r="O7">
-        <v>0.006852362525753438</v>
+        <v>0.007295668144165681</v>
       </c>
       <c r="P7">
-        <v>0.006852362525753438</v>
+        <v>0.004976750128956454</v>
       </c>
       <c r="Q7">
-        <v>2.726312760863502</v>
+        <v>3.84353172953325</v>
       </c>
       <c r="R7">
-        <v>2.726312760863502</v>
+        <v>15.374126918133</v>
       </c>
       <c r="S7">
-        <v>0.0004701474385334725</v>
+        <v>0.0006001991325534861</v>
       </c>
       <c r="T7">
-        <v>0.0004701474385334725</v>
+        <v>0.0002930620535771278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H8">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I8">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J8">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N8">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O8">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P8">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q8">
-        <v>252.4438452613406</v>
+        <v>271.0905637678158</v>
       </c>
       <c r="R8">
-        <v>252.4438452613406</v>
+        <v>1626.543382606895</v>
       </c>
       <c r="S8">
-        <v>0.04353345989018823</v>
+        <v>0.0423330240691515</v>
       </c>
       <c r="T8">
-        <v>0.04353345989018823</v>
+        <v>0.03100521717281045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H9">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I9">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J9">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N9">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O9">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P9">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q9">
-        <v>84.53989044739087</v>
+        <v>97.56703144653441</v>
       </c>
       <c r="R9">
-        <v>84.53989044739087</v>
+        <v>878.1032830188099</v>
       </c>
       <c r="S9">
-        <v>0.01457874295213013</v>
+        <v>0.01523589546303551</v>
       </c>
       <c r="T9">
-        <v>0.01457874295213013</v>
+        <v>0.01673843026954541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H10">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I10">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J10">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N10">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O10">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P10">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q10">
-        <v>1643.142722855229</v>
+        <v>1811.218683311757</v>
       </c>
       <c r="R10">
-        <v>1643.142722855229</v>
+        <v>16300.96814980582</v>
       </c>
       <c r="S10">
-        <v>0.2833568302892081</v>
+        <v>0.2828367134932949</v>
       </c>
       <c r="T10">
-        <v>0.2833568302892081</v>
+        <v>0.3107295280386289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H11">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I11">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J11">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N11">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O11">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P11">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q11">
-        <v>1940.697521401125</v>
+        <v>2056.753769944103</v>
       </c>
       <c r="R11">
-        <v>1940.697521401125</v>
+        <v>18510.78392949692</v>
       </c>
       <c r="S11">
-        <v>0.3346695880798394</v>
+        <v>0.3211790393483945</v>
       </c>
       <c r="T11">
-        <v>0.3346695880798394</v>
+        <v>0.3528531005752645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H12">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I12">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J12">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N12">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O12">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P12">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q12">
-        <v>175.2025634209058</v>
+        <v>189.28941928572</v>
       </c>
       <c r="R12">
-        <v>175.2025634209058</v>
+        <v>1703.60477357148</v>
       </c>
       <c r="S12">
-        <v>0.03021334807923792</v>
+        <v>0.02955910169385774</v>
       </c>
       <c r="T12">
-        <v>0.03021334807923792</v>
+        <v>0.03247416364423283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.5188292763039</v>
+        <v>95.52776833333333</v>
       </c>
       <c r="H13">
-        <v>90.5188292763039</v>
+        <v>286.583305</v>
       </c>
       <c r="I13">
-        <v>0.7112255445595018</v>
+        <v>0.6962231873972579</v>
       </c>
       <c r="J13">
-        <v>0.7112255445595018</v>
+        <v>0.7475206632577478</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.312212546451932</v>
+        <v>0.3405015</v>
       </c>
       <c r="N13">
-        <v>0.312212546451932</v>
+        <v>0.681003</v>
       </c>
       <c r="O13">
-        <v>0.006852362525753438</v>
+        <v>0.007295668144165681</v>
       </c>
       <c r="P13">
-        <v>0.006852362525753438</v>
+        <v>0.004976750128956454</v>
       </c>
       <c r="Q13">
-        <v>28.26111419020254</v>
+        <v>32.5273484091525</v>
       </c>
       <c r="R13">
-        <v>28.26111419020254</v>
+        <v>195.164090454915</v>
       </c>
       <c r="S13">
-        <v>0.004873575268898112</v>
+        <v>0.005079413329523668</v>
       </c>
       <c r="T13">
-        <v>0.004873575268898112</v>
+        <v>0.003720223557265611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H14">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I14">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J14">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N14">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O14">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P14">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q14">
-        <v>3.174564457888791</v>
+        <v>4.259324908902666</v>
       </c>
       <c r="R14">
-        <v>3.174564457888791</v>
+        <v>25.555949453416</v>
       </c>
       <c r="S14">
-        <v>0.0005474475891984951</v>
+        <v>0.0006651286617314554</v>
       </c>
       <c r="T14">
-        <v>0.0005474475891984951</v>
+        <v>0.000487148250291723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H15">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I15">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J15">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N15">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O15">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P15">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q15">
-        <v>1.063116952644512</v>
+        <v>1.532955192360889</v>
       </c>
       <c r="R15">
-        <v>1.063116952644512</v>
+        <v>13.796596731248</v>
       </c>
       <c r="S15">
-        <v>0.0001833324918997996</v>
+        <v>0.0002393835777726492</v>
       </c>
       <c r="T15">
-        <v>0.0001833324918997996</v>
+        <v>0.0002629911273638707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H16">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I16">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J16">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N16">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O16">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P16">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q16">
-        <v>20.66306065737006</v>
+        <v>28.45753369677245</v>
       </c>
       <c r="R16">
-        <v>20.66306065737006</v>
+        <v>256.117803270952</v>
       </c>
       <c r="S16">
-        <v>0.003563305421072593</v>
+        <v>0.004443878245669798</v>
       </c>
       <c r="T16">
-        <v>0.003563305421072593</v>
+        <v>0.004882125000263948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H17">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I17">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J17">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N17">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O17">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P17">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q17">
-        <v>24.40491020319742</v>
+        <v>32.31533566511555</v>
       </c>
       <c r="R17">
-        <v>24.40491020319742</v>
+        <v>290.83802098604</v>
       </c>
       <c r="S17">
-        <v>0.004208580242289795</v>
+        <v>0.00504630579353444</v>
       </c>
       <c r="T17">
-        <v>0.004208580242289795</v>
+        <v>0.005543962798170218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H18">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I18">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J18">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N18">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O18">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P18">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q18">
-        <v>2.203229911155968</v>
+        <v>2.974080422976</v>
       </c>
       <c r="R18">
-        <v>2.203229911155968</v>
+        <v>26.766723806784</v>
       </c>
       <c r="S18">
-        <v>0.0003799427982364823</v>
+        <v>0.0004644271507630488</v>
       </c>
       <c r="T18">
-        <v>0.0003799427982364823</v>
+        <v>0.000510228066160684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13830407666613</v>
+        <v>1.500914666666667</v>
       </c>
       <c r="H19">
-        <v>1.13830407666613</v>
+        <v>4.502744</v>
       </c>
       <c r="I19">
-        <v>0.008943895356069355</v>
+        <v>0.01093893023431312</v>
       </c>
       <c r="J19">
-        <v>0.008943895356069355</v>
+        <v>0.01174490670822518</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.312212546451932</v>
+        <v>0.3405015</v>
       </c>
       <c r="N19">
-        <v>0.312212546451932</v>
+        <v>0.681003</v>
       </c>
       <c r="O19">
-        <v>0.006852362525753438</v>
+        <v>0.007295668144165681</v>
       </c>
       <c r="P19">
-        <v>0.006852362525753438</v>
+        <v>0.004976750128956454</v>
       </c>
       <c r="Q19">
-        <v>0.3553928144125477</v>
+        <v>0.511063695372</v>
       </c>
       <c r="R19">
-        <v>0.3553928144125477</v>
+        <v>3.066382172232</v>
       </c>
       <c r="S19">
-        <v>6.128681337218985E-05</v>
+        <v>7.980680484172906E-05</v>
       </c>
       <c r="T19">
-        <v>6.128681337218985E-05</v>
+        <v>5.845146597474121E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H20">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I20">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J20">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N20">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O20">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P20">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q20">
-        <v>28.62601442627525</v>
+        <v>4.421916831215333</v>
       </c>
       <c r="R20">
-        <v>28.62601442627525</v>
+        <v>26.531500987292</v>
       </c>
       <c r="S20">
-        <v>0.004936501619011923</v>
+        <v>0.0006905187294086429</v>
       </c>
       <c r="T20">
-        <v>0.004936501619011923</v>
+        <v>0.0005057442419477315</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H21">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I21">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J21">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N21">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O21">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P21">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q21">
-        <v>9.586449299397303</v>
+        <v>1.591472947375111</v>
       </c>
       <c r="R21">
-        <v>9.586449299397303</v>
+        <v>14.323256526376</v>
       </c>
       <c r="S21">
-        <v>0.001653164907358293</v>
+        <v>0.0002485216071347169</v>
       </c>
       <c r="T21">
-        <v>0.001653164907358293</v>
+        <v>0.0002730303316659166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H22">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I22">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J22">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N22">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O22">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P22">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q22">
-        <v>186.3251102049593</v>
+        <v>29.54384789139156</v>
       </c>
       <c r="R22">
-        <v>186.3251102049593</v>
+        <v>265.894631022524</v>
       </c>
       <c r="S22">
-        <v>0.0321314100696147</v>
+        <v>0.004613515153381786</v>
       </c>
       <c r="T22">
-        <v>0.0321314100696147</v>
+        <v>0.00506849117465569</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H23">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I23">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J23">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N23">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O23">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P23">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q23">
-        <v>220.0665070172454</v>
+        <v>33.54891437966445</v>
       </c>
       <c r="R23">
-        <v>220.0665070172454</v>
+        <v>301.94022941698</v>
       </c>
       <c r="S23">
-        <v>0.03795004962981446</v>
+        <v>0.005238939268814375</v>
       </c>
       <c r="T23">
-        <v>0.03795004962981446</v>
+        <v>0.005755593417543801</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H24">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I24">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J24">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N24">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O24">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P24">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q24">
-        <v>19.86719503030524</v>
+        <v>3.087610492512</v>
       </c>
       <c r="R24">
-        <v>19.86719503030524</v>
+        <v>27.788494432608</v>
       </c>
       <c r="S24">
-        <v>0.003426059910816885</v>
+        <v>0.0004821558060856156</v>
       </c>
       <c r="T24">
-        <v>0.003426059910816885</v>
+        <v>0.0005297050874890036</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>10.264434492473</v>
+        <v>1.558209333333333</v>
       </c>
       <c r="H25">
-        <v>10.264434492473</v>
+        <v>4.674628</v>
       </c>
       <c r="I25">
-        <v>0.08064982799568234</v>
+        <v>0.01135650384817939</v>
       </c>
       <c r="J25">
-        <v>0.08064982799568234</v>
+        <v>0.0121932469968662</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.312212546451932</v>
+        <v>0.3405015</v>
       </c>
       <c r="N25">
-        <v>0.312212546451932</v>
+        <v>0.681003</v>
       </c>
       <c r="O25">
-        <v>0.006852362525753438</v>
+        <v>0.007295668144165681</v>
       </c>
       <c r="P25">
-        <v>0.006852362525753438</v>
+        <v>0.004976750128956454</v>
       </c>
       <c r="Q25">
-        <v>3.20468523078404</v>
+        <v>0.530572615314</v>
       </c>
       <c r="R25">
-        <v>3.20468523078404</v>
+        <v>3.183435691884</v>
       </c>
       <c r="S25">
-        <v>0.0005526418590660741</v>
+        <v>8.285328335425738E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005526418590660741</v>
+        <v>6.068274356405173E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H26">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I26">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J26">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.78885450993593</v>
+        <v>2.8378195</v>
       </c>
       <c r="N26">
-        <v>2.78885450993593</v>
+        <v>5.675639</v>
       </c>
       <c r="O26">
-        <v>0.06120907808106178</v>
+        <v>0.06080381239155241</v>
       </c>
       <c r="P26">
-        <v>0.06120907808106178</v>
+        <v>0.04147740483545635</v>
       </c>
       <c r="Q26">
-        <v>46.34468733999879</v>
+        <v>29.4408534034285</v>
       </c>
       <c r="R26">
-        <v>46.34468733999879</v>
+        <v>176.645120420571</v>
       </c>
       <c r="S26">
-        <v>0.007992052986479046</v>
+        <v>0.004597431715886469</v>
       </c>
       <c r="T26">
-        <v>0.007992052986479046</v>
+        <v>0.003367214412922134</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H27">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I27">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J27">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.933948120223002</v>
+        <v>1.021347333333333</v>
       </c>
       <c r="N27">
-        <v>0.933948120223002</v>
+        <v>3.064042</v>
       </c>
       <c r="O27">
-        <v>0.02049805868707863</v>
+        <v>0.02188363694118401</v>
       </c>
       <c r="P27">
-        <v>0.02049805868707863</v>
+        <v>0.02239192987200936</v>
       </c>
       <c r="Q27">
-        <v>15.52018345500175</v>
+        <v>10.59593011981533</v>
       </c>
       <c r="R27">
-        <v>15.52018345500175</v>
+        <v>95.36337107833801</v>
       </c>
       <c r="S27">
-        <v>0.002676426051216351</v>
+        <v>0.001654641749837414</v>
       </c>
       <c r="T27">
-        <v>0.002676426051216351</v>
+        <v>0.001817819347600994</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H28">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I28">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J28">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.1524964031475</v>
+        <v>18.96012766666667</v>
       </c>
       <c r="N28">
-        <v>18.1524964031475</v>
+        <v>56.88038300000001</v>
       </c>
       <c r="O28">
-        <v>0.3984064302199738</v>
+        <v>0.4062443173584093</v>
       </c>
       <c r="P28">
-        <v>0.3984064302199738</v>
+        <v>0.4156801855943991</v>
       </c>
       <c r="Q28">
-        <v>301.6549508936737</v>
+        <v>196.7011429531097</v>
       </c>
       <c r="R28">
-        <v>301.6549508936737</v>
+        <v>1770.310286577987</v>
       </c>
       <c r="S28">
-        <v>0.05201982124702446</v>
+        <v>0.03071650338296352</v>
       </c>
       <c r="T28">
-        <v>0.05201982124702446</v>
+        <v>0.033745706069419</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H29">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I29">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J29">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.4397107973773</v>
+        <v>21.53042833333333</v>
       </c>
       <c r="N29">
-        <v>21.4397107973773</v>
+        <v>64.591285</v>
       </c>
       <c r="O29">
-        <v>0.4705533858280039</v>
+        <v>0.4613162060130196</v>
       </c>
       <c r="P29">
-        <v>0.4705533858280039</v>
+        <v>0.4720312332738815</v>
       </c>
       <c r="Q29">
-        <v>356.2812939952446</v>
+        <v>223.3666321183183</v>
       </c>
       <c r="R29">
-        <v>356.2812939952446</v>
+        <v>2010.299689064865</v>
       </c>
       <c r="S29">
-        <v>0.06144002998254747</v>
+        <v>0.03488053911684211</v>
       </c>
       <c r="T29">
-        <v>0.06144002998254747</v>
+        <v>0.03832039102577899</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.6178218242957</v>
+        <v>10.374463</v>
       </c>
       <c r="H30">
-        <v>16.6178218242957</v>
+        <v>31.123389</v>
       </c>
       <c r="I30">
-        <v>0.1305697330695756</v>
+        <v>0.0756109121296677</v>
       </c>
       <c r="J30">
-        <v>0.1305697330695756</v>
+        <v>0.08118189713845646</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.93553722271539</v>
+        <v>1.981512</v>
       </c>
       <c r="N30">
-        <v>1.93553722271539</v>
+        <v>5.944536</v>
       </c>
       <c r="O30">
-        <v>0.04248068465812851</v>
+        <v>0.04245635915166902</v>
       </c>
       <c r="P30">
-        <v>0.04248068465812851</v>
+        <v>0.04344249629529721</v>
       </c>
       <c r="Q30">
-        <v>32.16441270137649</v>
+        <v>20.557122928056</v>
       </c>
       <c r="R30">
-        <v>32.16441270137649</v>
+        <v>185.014106352504</v>
       </c>
       <c r="S30">
-        <v>0.005546691656424653</v>
+        <v>0.003210164041162459</v>
       </c>
       <c r="T30">
-        <v>0.005546691656424653</v>
+        <v>0.003526744265682594</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10.374463</v>
+      </c>
+      <c r="H31">
+        <v>31.123389</v>
+      </c>
+      <c r="I31">
+        <v>0.0756109121296677</v>
+      </c>
+      <c r="J31">
+        <v>0.08118189713845646</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3405015</v>
+      </c>
+      <c r="N31">
+        <v>0.681003</v>
+      </c>
+      <c r="O31">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P31">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q31">
+        <v>3.5325202131945</v>
+      </c>
+      <c r="R31">
+        <v>21.195121279167</v>
+      </c>
+      <c r="S31">
+        <v>0.0005516321229757271</v>
+      </c>
+      <c r="T31">
+        <v>0.0004040220170527428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>16.959331</v>
+      </c>
+      <c r="H32">
+        <v>33.918662</v>
+      </c>
+      <c r="I32">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J32">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.8378195</v>
+      </c>
+      <c r="N32">
+        <v>5.675639</v>
+      </c>
+      <c r="O32">
+        <v>0.06080381239155241</v>
+      </c>
+      <c r="P32">
+        <v>0.04147740483545635</v>
+      </c>
+      <c r="Q32">
+        <v>48.1275202187545</v>
+      </c>
+      <c r="R32">
+        <v>192.510080875018</v>
+      </c>
+      <c r="S32">
+        <v>0.007515508631108576</v>
+      </c>
+      <c r="T32">
+        <v>0.003669632749615868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>16.959331</v>
+      </c>
+      <c r="H33">
+        <v>33.918662</v>
+      </c>
+      <c r="I33">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J33">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.021347333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.064042</v>
+      </c>
+      <c r="O33">
+        <v>0.02188363694118401</v>
+      </c>
+      <c r="P33">
+        <v>0.02239192987200936</v>
+      </c>
+      <c r="Q33">
+        <v>17.32136749196733</v>
+      </c>
+      <c r="R33">
+        <v>103.928204951804</v>
+      </c>
+      <c r="S33">
+        <v>0.002704874182105801</v>
+      </c>
+      <c r="T33">
+        <v>0.00198108245950782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16.959331</v>
+      </c>
+      <c r="H34">
+        <v>33.918662</v>
+      </c>
+      <c r="I34">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J34">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>18.96012766666667</v>
+      </c>
+      <c r="N34">
+        <v>56.88038300000001</v>
+      </c>
+      <c r="O34">
+        <v>0.4062443173584093</v>
+      </c>
+      <c r="P34">
+        <v>0.4156801855943991</v>
+      </c>
+      <c r="Q34">
+        <v>321.5510809012576</v>
+      </c>
+      <c r="R34">
+        <v>1929.306485407546</v>
+      </c>
+      <c r="S34">
+        <v>0.05021284938163045</v>
+      </c>
+      <c r="T34">
+        <v>0.03677649622667928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16.959331</v>
+      </c>
+      <c r="H35">
+        <v>33.918662</v>
+      </c>
+      <c r="I35">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J35">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.53042833333333</v>
+      </c>
+      <c r="N35">
+        <v>64.591285</v>
+      </c>
+      <c r="O35">
+        <v>0.4613162060130196</v>
+      </c>
+      <c r="P35">
+        <v>0.4720312332738815</v>
+      </c>
+      <c r="Q35">
+        <v>365.1416606767783</v>
+      </c>
+      <c r="R35">
+        <v>2190.84996406067</v>
+      </c>
+      <c r="S35">
+        <v>0.05701987739904926</v>
+      </c>
+      <c r="T35">
+        <v>0.04176204560856887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.6178218242957</v>
-      </c>
-      <c r="H31">
-        <v>16.6178218242957</v>
-      </c>
-      <c r="I31">
-        <v>0.1305697330695756</v>
-      </c>
-      <c r="J31">
-        <v>0.1305697330695756</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.312212546451932</v>
-      </c>
-      <c r="N31">
-        <v>0.312212546451932</v>
-      </c>
-      <c r="O31">
-        <v>0.006852362525753438</v>
-      </c>
-      <c r="P31">
-        <v>0.006852362525753438</v>
-      </c>
-      <c r="Q31">
-        <v>5.188292468247851</v>
-      </c>
-      <c r="R31">
-        <v>5.188292468247851</v>
-      </c>
-      <c r="S31">
-        <v>0.000894711145883589</v>
-      </c>
-      <c r="T31">
-        <v>0.000894711145883589</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.959331</v>
+      </c>
+      <c r="H36">
+        <v>33.918662</v>
+      </c>
+      <c r="I36">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J36">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.981512</v>
+      </c>
+      <c r="N36">
+        <v>5.944536</v>
+      </c>
+      <c r="O36">
+        <v>0.04245635915166902</v>
+      </c>
+      <c r="P36">
+        <v>0.04344249629529721</v>
+      </c>
+      <c r="Q36">
+        <v>33.605117888472</v>
+      </c>
+      <c r="R36">
+        <v>201.630707330832</v>
+      </c>
+      <c r="S36">
+        <v>0.005247715909572549</v>
+      </c>
+      <c r="T36">
+        <v>0.003843490395860363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.959331</v>
+      </c>
+      <c r="H37">
+        <v>33.918662</v>
+      </c>
+      <c r="I37">
+        <v>0.1236025889743835</v>
+      </c>
+      <c r="J37">
+        <v>0.08847305573175437</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.3405015</v>
+      </c>
+      <c r="N37">
+        <v>0.681003</v>
+      </c>
+      <c r="O37">
+        <v>0.007295668144165681</v>
+      </c>
+      <c r="P37">
+        <v>0.004976750128956454</v>
+      </c>
+      <c r="Q37">
+        <v>5.7746776444965</v>
+      </c>
+      <c r="R37">
+        <v>23.098710577986</v>
+      </c>
+      <c r="S37">
+        <v>0.0009017634709168137</v>
+      </c>
+      <c r="T37">
+        <v>0.0004403082915221801</v>
       </c>
     </row>
   </sheetData>
